--- a/data/trans_orig/P34C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82B28BE-552A-49E4-8E0A-D0620CCA89C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59202F65-F84E-48E1-AEE7-CE666E08E31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{453CA191-8938-450A-AEEB-F6BAAEAF19D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A1015979-2084-48CE-8E99-0A95244A2138}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="326">
   <si>
     <t>Población según el número de veces al día que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,39%)</t>
   </si>
@@ -86,955 +86,931 @@
     <t>0,67%</t>
   </si>
   <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>4,29%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>4,56%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1449,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52AA5E7-0857-41CE-9326-C3FD842612B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7886DC02-6E84-447D-867F-2CF0FB6EA9C3}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1887,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1935,10 +1911,10 @@
         <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1947,13 +1923,13 @@
         <v>3026</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -1962,13 +1938,13 @@
         <v>9020</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1959,13 @@
         <v>29991</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -1998,13 +1974,13 @@
         <v>22602</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -2013,13 +1989,13 @@
         <v>52594</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2010,13 @@
         <v>57525</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -2049,13 +2025,13 @@
         <v>81458</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -2064,13 +2040,13 @@
         <v>138983</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2061,13 @@
         <v>182369</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>166</v>
@@ -2100,13 +2076,13 @@
         <v>129940</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -2115,13 +2091,13 @@
         <v>312309</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2153,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -2195,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2210,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2240,13 +2216,13 @@
         <v>917</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2261,7 +2237,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2270,13 +2246,13 @@
         <v>917</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,7 +2273,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2306,13 +2282,13 @@
         <v>2736</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2321,13 +2297,13 @@
         <v>2736</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2318,13 @@
         <v>3890</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -2357,13 +2333,13 @@
         <v>6755</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2372,13 +2348,13 @@
         <v>10645</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2369,13 @@
         <v>71388</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>124</v>
@@ -2408,13 +2384,13 @@
         <v>93544</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -2423,13 +2399,13 @@
         <v>164932</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2461,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2503,7 +2479,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2512,13 +2488,13 @@
         <v>159</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2554,7 +2530,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2584,7 +2560,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,7 +2581,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2614,13 +2590,13 @@
         <v>1556</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -2629,13 +2605,13 @@
         <v>1556</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2626,13 @@
         <v>6329</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2665,13 +2641,13 @@
         <v>9229</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2680,13 +2656,13 @@
         <v>15559</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2677,13 @@
         <v>104683</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>190</v>
@@ -2716,13 +2692,13 @@
         <v>125799</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>300</v>
@@ -2731,13 +2707,13 @@
         <v>230482</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,7 +2769,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2805,13 +2781,13 @@
         <v>29802</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>68</v>
@@ -2820,13 +2796,13 @@
         <v>31884</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>114</v>
@@ -2835,13 +2811,13 @@
         <v>61685</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2832,13 @@
         <v>34248</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>99</v>
@@ -2871,13 +2847,13 @@
         <v>41393</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>149</v>
@@ -2886,13 +2862,13 @@
         <v>75641</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2883,13 @@
         <v>36028</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>92</v>
@@ -2922,13 +2898,13 @@
         <v>42946</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>142</v>
@@ -2937,13 +2913,13 @@
         <v>78974</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2934,13 @@
         <v>30900</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H31" s="7">
         <v>102</v>
@@ -2973,13 +2949,13 @@
         <v>52475</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>144</v>
@@ -2988,13 +2964,13 @@
         <v>83374</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +2985,13 @@
         <v>36746</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -3024,13 +3000,13 @@
         <v>19550</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>79</v>
@@ -3039,13 +3015,13 @@
         <v>56297</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3077,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -3119,7 +3095,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3134,7 +3110,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3149,7 +3125,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3140,13 @@
         <v>779</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3185,7 +3161,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3194,13 +3170,13 @@
         <v>779</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,7 +3197,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3236,7 +3212,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3251,7 +3227,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3242,13 @@
         <v>1099</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3281,13 +3257,13 @@
         <v>1551</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -3296,13 +3272,13 @@
         <v>2650</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3293,13 @@
         <v>30981</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H38" s="7">
         <v>68</v>
@@ -3332,13 +3308,13 @@
         <v>44349</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M38" s="7">
         <v>100</v>
@@ -3347,13 +3323,13 @@
         <v>75329</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3385,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -3421,13 +3397,13 @@
         <v>14619</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
@@ -3436,13 +3412,13 @@
         <v>3198</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M40" s="7">
         <v>14</v>
@@ -3451,13 +3427,13 @@
         <v>17817</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3448,13 @@
         <v>15112</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -3487,13 +3463,13 @@
         <v>9014</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M41" s="7">
         <v>24</v>
@@ -3502,13 +3478,13 @@
         <v>24126</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3499,13 @@
         <v>22987</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H42" s="7">
         <v>25</v>
@@ -3538,13 +3514,13 @@
         <v>15500</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M42" s="7">
         <v>46</v>
@@ -3553,13 +3529,13 @@
         <v>38488</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3550,13 @@
         <v>70652</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H43" s="7">
         <v>72</v>
@@ -3589,13 +3565,13 @@
         <v>59991</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M43" s="7">
         <v>136</v>
@@ -3604,13 +3580,13 @@
         <v>130644</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3601,13 @@
         <v>222360</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H44" s="7">
         <v>330</v>
@@ -3640,13 +3616,13 @@
         <v>247258</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M44" s="7">
         <v>530</v>
@@ -3655,13 +3631,13 @@
         <v>469619</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,7 +3693,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
@@ -3729,13 +3705,13 @@
         <v>2360</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -3744,13 +3720,13 @@
         <v>3616</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -3759,13 +3735,13 @@
         <v>5976</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>264</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3756,13 @@
         <v>1184</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3801,7 +3777,7 @@
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -3810,13 +3786,13 @@
         <v>1813</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3813,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H48" s="7">
         <v>3</v>
@@ -3846,13 +3822,13 @@
         <v>2843</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M48" s="7">
         <v>4</v>
@@ -3861,13 +3837,13 @@
         <v>3607</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3858,13 @@
         <v>28139</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H49" s="7">
         <v>27</v>
@@ -3897,13 +3873,13 @@
         <v>23666</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M49" s="7">
         <v>52</v>
@@ -3912,13 +3888,13 @@
         <v>51805</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>280</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3909,13 @@
         <v>278054</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H50" s="7">
         <v>236</v>
@@ -3948,13 +3924,13 @@
         <v>219032</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M50" s="7">
         <v>465</v>
@@ -3963,13 +3939,13 @@
         <v>497086</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4013,13 @@
         <v>46781</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>289</v>
+        <v>129</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H52" s="7">
         <v>78</v>
@@ -4052,13 +4028,13 @@
         <v>40141</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M52" s="7">
         <v>136</v>
@@ -4067,13 +4043,13 @@
         <v>86921</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4064,13 @@
         <v>59458</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="H53" s="7">
         <v>115</v>
@@ -4103,13 +4079,13 @@
         <v>54632</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M53" s="7">
         <v>187</v>
@@ -4118,13 +4094,13 @@
         <v>114090</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4115,13 @@
         <v>89770</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H54" s="7">
         <v>151</v>
@@ -4154,13 +4130,13 @@
         <v>88184</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M54" s="7">
         <v>238</v>
@@ -4169,13 +4145,13 @@
         <v>177955</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4166,13 @@
         <v>203814</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H55" s="7">
         <v>334</v>
@@ -4205,13 +4181,13 @@
         <v>238031</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M55" s="7">
         <v>526</v>
@@ -4220,13 +4196,13 @@
         <v>441845</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4217,13 @@
         <v>1102530</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H56" s="7">
         <v>1491</v>
@@ -4256,13 +4232,13 @@
         <v>1060604</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M56" s="7">
         <v>2532</v>
@@ -4271,13 +4247,13 @@
         <v>2163135</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,7 +4309,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59202F65-F84E-48E1-AEE7-CE666E08E31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43483BD9-24F5-47B6-AD6A-6240D7457CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A1015979-2084-48CE-8E99-0A95244A2138}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B20C8226-315E-4FA2-8F4F-3DB0E4033004}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1425,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7886DC02-6E84-447D-867F-2CF0FB6EA9C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADF3816-4993-4510-844D-907E682E9290}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
